--- a/schedule/schedule_N-03_C-updated_I-017.xlsx
+++ b/schedule/schedule_N-03_C-updated_I-017.xlsx
@@ -292,55 +292,55 @@
     <t>T30031</t>
   </si>
   <si>
+    <t>T30032</t>
+  </si>
+  <si>
     <t>R11010</t>
   </si>
   <si>
-    <t>T30032</t>
+    <t>T30033</t>
   </si>
   <si>
     <t>R11020</t>
   </si>
   <si>
-    <t>T30033</t>
+    <t>T30034</t>
   </si>
   <si>
     <t>R11030</t>
   </si>
   <si>
-    <t>T30034</t>
+    <t>T30035</t>
   </si>
   <si>
     <t>R12010</t>
   </si>
   <si>
-    <t>T30035</t>
+    <t>T30036</t>
   </si>
   <si>
     <t>R12020</t>
   </si>
   <si>
-    <t>T30036</t>
-  </si>
-  <si>
     <t>T30040</t>
   </si>
   <si>
+    <t>T30050</t>
+  </si>
+  <si>
     <t>T35010</t>
   </si>
   <si>
-    <t>T30050</t>
+    <t>T32010</t>
   </si>
   <si>
     <t>T35020</t>
   </si>
   <si>
-    <t>T32010</t>
+    <t>T32020</t>
   </si>
   <si>
     <t>T35030</t>
-  </si>
-  <si>
-    <t>T32020</t>
   </si>
   <si>
     <t>T35031</t>
@@ -725,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BJ36"/>
+  <dimension ref="A1:BK36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:63">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -915,8 +915,11 @@
       <c r="BJ1" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:62">
+      <c r="BK1" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,7 +933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:63">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1003,71 +1006,71 @@
       <c r="AN3" t="s">
         <v>38</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>51</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>92</v>
-      </c>
       <c r="AR3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AT3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AV3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW3" t="s">
         <v>39</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>43</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>49</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>52</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BA3" t="s">
         <v>53</v>
       </c>
-      <c r="BA3" t="s">
+      <c r="BB3" t="s">
         <v>55</v>
       </c>
-      <c r="BB3" t="s">
+      <c r="BC3" t="s">
         <v>56</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BD3" t="s">
         <v>58</v>
       </c>
-      <c r="BD3" t="s">
+      <c r="BE3" t="s">
         <v>60</v>
       </c>
-      <c r="BE3" t="s">
+      <c r="BF3" t="s">
         <v>64</v>
       </c>
-      <c r="BF3" t="s">
+      <c r="BG3" t="s">
         <v>67</v>
       </c>
-      <c r="BG3" t="s">
+      <c r="BH3" t="s">
         <v>68</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="BI3" t="s">
         <v>71</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="BJ3" t="s">
         <v>72</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="BK3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:63">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1143,68 +1146,68 @@
       <c r="AP4" t="s">
         <v>51</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>92</v>
-      </c>
       <c r="AR4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AT4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AV4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW4" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AX4" t="s">
         <v>43</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>49</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>52</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="BA4" t="s">
         <v>53</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>55</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" t="s">
         <v>56</v>
       </c>
-      <c r="BC4" t="s">
+      <c r="BD4" t="s">
         <v>58</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BE4" t="s">
         <v>60</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BF4" t="s">
         <v>64</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BG4" t="s">
         <v>67</v>
       </c>
-      <c r="BG4" t="s">
+      <c r="BH4" t="s">
         <v>68</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>71</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>72</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:63">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1280,68 +1283,68 @@
       <c r="AP5" t="s">
         <v>51</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>92</v>
-      </c>
       <c r="AR5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AT5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AV5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="s">
         <v>39</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>43</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>49</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>52</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BA5" t="s">
         <v>53</v>
       </c>
-      <c r="BA5" t="s">
+      <c r="BB5" t="s">
         <v>55</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BC5" t="s">
         <v>56</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="BD5" t="s">
         <v>58</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="BE5" t="s">
         <v>60</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BF5" t="s">
         <v>64</v>
       </c>
-      <c r="BF5" t="s">
+      <c r="BG5" t="s">
         <v>67</v>
       </c>
-      <c r="BG5" t="s">
+      <c r="BH5" t="s">
         <v>68</v>
       </c>
-      <c r="BH5" t="s">
+      <c r="BI5" t="s">
         <v>71</v>
       </c>
-      <c r="BI5" t="s">
+      <c r="BJ5" t="s">
         <v>72</v>
       </c>
-      <c r="BJ5" t="s">
+      <c r="BK5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:63">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:63">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:63">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1400,23 +1403,23 @@
       <c r="AD8" t="s">
         <v>64</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>67</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>71</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>72</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:63">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1453,23 +1456,23 @@
       <c r="AD9" t="s">
         <v>64</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>67</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>68</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>71</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>72</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:63">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:63">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1520,23 +1523,23 @@
       <c r="AD11" t="s">
         <v>64</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>67</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>68</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>71</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>72</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:63">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1564,11 +1567,11 @@
       <c r="AA12" t="s">
         <v>77</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:63">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1596,11 +1599,11 @@
       <c r="AA13" t="s">
         <v>77</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:63">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1650,7 +1653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:63">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:63">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:62">
+    <row r="17" spans="1:63">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1823,71 +1826,71 @@
       <c r="AO17" t="s">
         <v>38</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>51</v>
       </c>
-      <c r="AQ17" t="s">
-        <v>92</v>
-      </c>
       <c r="AR17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AT17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AV17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW17" t="s">
         <v>39</v>
       </c>
-      <c r="AW17" t="s">
+      <c r="AX17" t="s">
         <v>43</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>49</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>52</v>
       </c>
-      <c r="AZ17" t="s">
+      <c r="BA17" t="s">
         <v>53</v>
       </c>
-      <c r="BA17" t="s">
+      <c r="BB17" t="s">
         <v>55</v>
       </c>
-      <c r="BB17" t="s">
+      <c r="BC17" t="s">
         <v>56</v>
       </c>
-      <c r="BC17" t="s">
+      <c r="BD17" t="s">
         <v>58</v>
       </c>
-      <c r="BD17" t="s">
+      <c r="BE17" t="s">
         <v>60</v>
       </c>
-      <c r="BE17" t="s">
+      <c r="BF17" t="s">
         <v>64</v>
       </c>
-      <c r="BF17" t="s">
+      <c r="BG17" t="s">
         <v>67</v>
       </c>
-      <c r="BG17" t="s">
+      <c r="BH17" t="s">
         <v>68</v>
       </c>
-      <c r="BH17" t="s">
+      <c r="BI17" t="s">
         <v>71</v>
       </c>
-      <c r="BI17" t="s">
+      <c r="BJ17" t="s">
         <v>72</v>
       </c>
-      <c r="BJ17" t="s">
+      <c r="BK17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:62">
+    <row r="18" spans="1:63">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:62">
+    <row r="19" spans="1:63">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2031,11 +2034,11 @@
       <c r="AA19" t="s">
         <v>77</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:62">
+    <row r="20" spans="1:63">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2066,11 +2069,11 @@
       <c r="Z20" t="s">
         <v>77</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:62">
+    <row r="21" spans="1:63">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:62">
+    <row r="22" spans="1:63">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:62">
+    <row r="23" spans="1:63">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2205,7 +2208,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:62">
+    <row r="24" spans="1:63">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -2275,26 +2278,26 @@
       <c r="AO24" t="s">
         <v>38</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>51</v>
       </c>
-      <c r="AR24" t="s">
-        <v>92</v>
-      </c>
       <c r="AS24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AT24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AU24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AV24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:62">
+        <v>99</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -2374,34 +2377,34 @@
         <v>91</v>
       </c>
       <c r="AQ25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AR25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AS25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AU25" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AV25" t="s">
         <v>102</v>
       </c>
       <c r="AW25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AX25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AY25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:62">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,62 +2477,62 @@
       <c r="AO26" t="s">
         <v>38</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>51</v>
       </c>
-      <c r="AQ26" t="s">
-        <v>92</v>
-      </c>
       <c r="AR26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AS26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AT26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AV26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AW26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AX26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AY26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ26" t="s">
         <v>109</v>
       </c>
-      <c r="AZ26" t="s">
+      <c r="BA26" t="s">
         <v>110</v>
       </c>
-      <c r="BA26" t="s">
+      <c r="BB26" t="s">
         <v>111</v>
       </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>112</v>
       </c>
-      <c r="BC26" t="s">
+      <c r="BD26" t="s">
         <v>113</v>
       </c>
-      <c r="BD26" t="s">
+      <c r="BE26" t="s">
         <v>114</v>
       </c>
-      <c r="BE26" t="s">
+      <c r="BF26" t="s">
         <v>115</v>
       </c>
-      <c r="BF26" t="s">
+      <c r="BG26" t="s">
         <v>116</v>
       </c>
-      <c r="BG26" t="s">
+      <c r="BH26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:62">
+    <row r="27" spans="1:63">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2569,23 +2572,23 @@
       <c r="AC27" t="s">
         <v>64</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>67</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>68</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AH27" t="s">
         <v>71</v>
       </c>
-      <c r="AH27" t="s">
+      <c r="AI27" t="s">
         <v>72</v>
       </c>
-      <c r="AI27" t="s">
+      <c r="AJ27" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:62">
+    <row r="28" spans="1:63">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,14 +2616,14 @@
       <c r="Z28" t="s">
         <v>74</v>
       </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
         <v>77</v>
       </c>
-      <c r="AB28" t="s">
+      <c r="AC28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:62">
+    <row r="29" spans="1:63">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2648,14 +2651,14 @@
       <c r="Y29" t="s">
         <v>74</v>
       </c>
-      <c r="AA29" t="s">
+      <c r="AB29" t="s">
         <v>77</v>
       </c>
-      <c r="AB29" t="s">
+      <c r="AC29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:62">
+    <row r="30" spans="1:63">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -2683,14 +2686,14 @@
       <c r="Y30" t="s">
         <v>74</v>
       </c>
-      <c r="AA30" t="s">
+      <c r="AB30" t="s">
         <v>77</v>
       </c>
-      <c r="AB30" t="s">
+      <c r="AC30" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:62">
+    <row r="31" spans="1:63">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2715,14 +2718,14 @@
       <c r="Y31" t="s">
         <v>74</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AB31" t="s">
         <v>77</v>
       </c>
-      <c r="AB31" t="s">
+      <c r="AC31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:62">
+    <row r="32" spans="1:63">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2756,23 +2759,23 @@
       <c r="AC32" t="s">
         <v>64</v>
       </c>
-      <c r="AE32" t="s">
+      <c r="AF32" t="s">
         <v>67</v>
       </c>
-      <c r="AF32" t="s">
+      <c r="AG32" t="s">
         <v>68</v>
       </c>
-      <c r="AG32" t="s">
+      <c r="AH32" t="s">
         <v>71</v>
       </c>
-      <c r="AH32" t="s">
+      <c r="AI32" t="s">
         <v>72</v>
       </c>
-      <c r="AI32" t="s">
+      <c r="AJ32" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:36">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2806,26 +2809,26 @@
       <c r="AC33" t="s">
         <v>60</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>64</v>
       </c>
-      <c r="AE33" t="s">
+      <c r="AF33" t="s">
         <v>67</v>
       </c>
-      <c r="AF33" t="s">
+      <c r="AG33" t="s">
         <v>68</v>
       </c>
-      <c r="AG33" t="s">
+      <c r="AH33" t="s">
         <v>71</v>
       </c>
-      <c r="AH33" t="s">
+      <c r="AI33" t="s">
         <v>72</v>
       </c>
-      <c r="AI33" t="s">
+      <c r="AJ33" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:36">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:36">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2873,26 +2876,26 @@
       <c r="AB35" t="s">
         <v>60</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>64</v>
       </c>
-      <c r="AE35" t="s">
+      <c r="AF35" t="s">
         <v>67</v>
       </c>
-      <c r="AF35" t="s">
+      <c r="AG35" t="s">
         <v>68</v>
       </c>
-      <c r="AG35" t="s">
+      <c r="AH35" t="s">
         <v>71</v>
       </c>
-      <c r="AH35" t="s">
+      <c r="AI35" t="s">
         <v>72</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AJ35" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:36">
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
@@ -2929,22 +2932,22 @@
       <c r="AB36" t="s">
         <v>60</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>64</v>
       </c>
-      <c r="AE36" t="s">
+      <c r="AF36" t="s">
         <v>67</v>
       </c>
-      <c r="AF36" t="s">
+      <c r="AG36" t="s">
         <v>68</v>
       </c>
-      <c r="AG36" t="s">
+      <c r="AH36" t="s">
         <v>71</v>
       </c>
-      <c r="AH36" t="s">
+      <c r="AI36" t="s">
         <v>72</v>
       </c>
-      <c r="AI36" t="s">
+      <c r="AJ36" t="s">
         <v>75</v>
       </c>
     </row>
